--- a/TSP-8UL-Pack/Panel-Release-Mechanism/Release_Main - Rev2/108354_TCP_release_PCB.xlsx
+++ b/TSP-8UL-Pack/Panel-Release-Mechanism/Release_Main - Rev2/108354_TCP_release_PCB.xlsx
@@ -1228,32 +1228,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -1261,149 +1255,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1412,6 +1277,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
       <protection locked="0"/>
@@ -1448,6 +1319,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1457,23 +1337,143 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1626,7 +1626,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4773,8 +4773,8 @@
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>133350</xdr:colOff>
-          <xdr:row>61</xdr:row>
-          <xdr:rowOff>182217</xdr:rowOff>
+          <xdr:row>62</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5301,79 +5301,79 @@
   </sheetPr>
   <dimension ref="A1:Q114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.1328125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="7.265625" style="8" customWidth="1"/>
-    <col min="3" max="4" width="9.1328125" style="8"/>
-    <col min="5" max="5" width="3.265625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="21.86328125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="11.73046875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="71.3984375" style="8" customWidth="1"/>
-    <col min="9" max="9" width="3.86328125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="9.1328125" style="9"/>
-    <col min="11" max="11" width="9.1328125" style="27"/>
-    <col min="12" max="15" width="9.1328125" style="9"/>
-    <col min="16" max="16384" width="9.1328125" style="8"/>
+    <col min="1" max="1" width="3.140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="8" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="8"/>
+    <col min="5" max="5" width="3.28515625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="71.42578125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="3.85546875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="9"/>
+    <col min="11" max="11" width="9.140625" style="27"/>
+    <col min="12" max="15" width="9.140625" style="9"/>
+    <col min="16" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="9" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K1" s="27"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="B2" s="96" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="98"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="96"/>
       <c r="E2" s="14"/>
       <c r="F2" s="13"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="93"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="B3" s="99" t="s">
+      <c r="G2" s="91"/>
+      <c r="H2" s="92"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="15"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="95"/>
-    </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="102" t="s">
+      <c r="G3" s="68"/>
+      <c r="H3" s="93"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="104"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="102"/>
       <c r="E4" s="15"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="95"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="B5" s="102" t="s">
+      <c r="G4" s="68"/>
+      <c r="H4" s="93"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="104"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="102"/>
       <c r="E5" s="15"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="95"/>
-    </row>
-    <row r="6" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="76" t="s">
+      <c r="G5" s="68"/>
+      <c r="H5" s="93"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="78"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="114"/>
       <c r="E6" s="16"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
@@ -5381,104 +5381,104 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="79"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="81"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="B8" s="89"/>
-      <c r="C8" s="105" t="s">
+    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="115"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="117"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="88"/>
+      <c r="C8" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="131">
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="55">
         <v>43948</v>
       </c>
-      <c r="H8" s="87"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="B9" s="90"/>
-      <c r="C9" s="106" t="s">
+      <c r="H8" s="56"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="89"/>
+      <c r="C9" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="132" t="s">
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="H9" s="133"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="B10" s="90"/>
-      <c r="C10" s="105" t="s">
+      <c r="H9" s="58"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="89"/>
+      <c r="C10" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="75">
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="59">
         <v>108354</v>
       </c>
-      <c r="H10" s="87"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="B11" s="90"/>
-      <c r="C11" s="106" t="s">
+      <c r="H10" s="56"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="89"/>
+      <c r="C11" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="132" t="s">
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="H11" s="133"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="B12" s="90"/>
-      <c r="C12" s="105" t="s">
+      <c r="H11" s="58"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="89"/>
+      <c r="C12" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="75" t="s">
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="H12" s="87"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="B13" s="90"/>
-      <c r="C13" s="108" t="s">
+      <c r="H12" s="56"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="89"/>
+      <c r="C13" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="109"/>
-    </row>
-    <row r="14" spans="1:17" s="25" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="107"/>
+    </row>
+    <row r="14" spans="1:17" s="25" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="110" t="s">
+      <c r="B14" s="89"/>
+      <c r="C14" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="85" t="s">
+      <c r="D14" s="109"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="86"/>
+      <c r="H14" s="67"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
       <c r="K14" s="27"/>
@@ -5487,321 +5487,321 @@
       <c r="N14" s="24"/>
       <c r="O14" s="24"/>
     </row>
-    <row r="15" spans="1:17" ht="28.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="90"/>
-      <c r="C15" s="88" t="s">
+    <row r="15" spans="1:17" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="89"/>
+      <c r="C15" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="128" t="s">
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="H15" s="129"/>
+      <c r="H15" s="61"/>
       <c r="Q15" s="9"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="B16" s="90"/>
-      <c r="C16" s="74" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="89"/>
+      <c r="C16" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75" t="s">
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="87"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B17" s="90"/>
-      <c r="C17" s="88" t="s">
+      <c r="H16" s="56"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="89"/>
+      <c r="C17" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64">
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62">
         <v>4</v>
       </c>
-      <c r="H17" s="65"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B18" s="90"/>
-      <c r="C18" s="74" t="s">
+      <c r="H17" s="63"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="89"/>
+      <c r="C18" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="112" t="s">
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="110" t="s">
         <v>146</v>
       </c>
-      <c r="H18" s="113"/>
-    </row>
-    <row r="19" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="91"/>
-      <c r="C19" s="88" t="s">
+      <c r="H18" s="111"/>
+    </row>
+    <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="90"/>
+      <c r="C19" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="130" t="s">
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="H19" s="86"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B20" s="82" t="s">
+      <c r="H19" s="67"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="84"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="C20" s="119"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="120"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75" t="s">
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="87"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="H21" s="56"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64" t="s">
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="H22" s="65"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="H22" s="63"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75" t="s">
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="87"/>
-    </row>
-    <row r="24" spans="2:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H23" s="56"/>
+    </row>
+    <row r="24" spans="2:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="128" t="s">
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="H24" s="129"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="H24" s="61"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
-      <c r="C25" s="75" t="s">
+      <c r="C25" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75" t="s">
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="H25" s="87"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="H25" s="56"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64" t="s">
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="H26" s="65"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="H26" s="63"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
-      <c r="C27" s="75" t="s">
+      <c r="C27" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="66" t="s">
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="121" t="s">
         <v>55</v>
       </c>
-      <c r="H27" s="67"/>
+      <c r="H27" s="122"/>
       <c r="M27" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
-      <c r="C28" s="64" t="s">
+      <c r="C28" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64" t="s">
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="H28" s="65"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="H28" s="63"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
-      <c r="C29" s="75" t="s">
+      <c r="C29" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="66" t="s">
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="121" t="s">
         <v>127</v>
       </c>
-      <c r="H29" s="67"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="H29" s="122"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
-      <c r="C30" s="64" t="s">
+      <c r="C30" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64" t="s">
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="H30" s="65"/>
-    </row>
-    <row r="31" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H30" s="63"/>
+    </row>
+    <row r="31" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
-      <c r="C31" s="75" t="s">
+      <c r="C31" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="66" t="s">
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="H31" s="67"/>
-    </row>
-    <row r="32" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H31" s="122"/>
+    </row>
+    <row r="32" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
-      <c r="C32" s="64" t="s">
+      <c r="C32" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64" t="s">
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="H32" s="65"/>
-    </row>
-    <row r="33" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H32" s="63"/>
+    </row>
+    <row r="33" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
-      <c r="C33" s="75" t="s">
+      <c r="C33" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="66" t="s">
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="121" t="s">
         <v>69</v>
       </c>
-      <c r="H33" s="67"/>
-    </row>
-    <row r="34" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H33" s="122"/>
+    </row>
+    <row r="34" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
-      <c r="C34" s="64" t="s">
+      <c r="C34" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64" t="s">
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="H34" s="65"/>
-    </row>
-    <row r="35" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H34" s="63"/>
+    </row>
+    <row r="35" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
-      <c r="C35" s="75" t="s">
+      <c r="C35" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="75"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="66" t="s">
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="121" t="s">
         <v>73</v>
       </c>
-      <c r="H35" s="67"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="H35" s="122"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
-      <c r="C36" s="64" t="s">
+      <c r="C36" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="65"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="63"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
-      <c r="C37" s="75" t="s">
+      <c r="C37" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="67"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B38" s="61" t="s">
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="121"/>
+      <c r="H37" s="122"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="63"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C38" s="128"/>
+      <c r="D38" s="128"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="128"/>
+      <c r="G38" s="128"/>
+      <c r="H38" s="129"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="21"/>
-      <c r="C39" s="69" t="s">
+      <c r="C39" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="70"/>
-      <c r="E39" s="71"/>
+      <c r="D39" s="131"/>
+      <c r="E39" s="132"/>
       <c r="F39" s="22" t="s">
         <v>4</v>
       </c>
@@ -5812,13 +5812,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="18"/>
-      <c r="C40" s="72" t="s">
+      <c r="C40" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="D40" s="72"/>
-      <c r="E40" s="72"/>
+      <c r="D40" s="133"/>
+      <c r="E40" s="133"/>
       <c r="F40" s="19" t="s">
         <v>13</v>
       </c>
@@ -5829,13 +5829,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
-      <c r="C41" s="115" t="s">
+      <c r="C41" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="115"/>
-      <c r="E41" s="115"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="70"/>
       <c r="F41" s="12" t="s">
         <v>80</v>
       </c>
@@ -5846,13 +5846,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
-      <c r="C42" s="73" t="s">
+      <c r="C42" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="71"/>
       <c r="F42" s="10" t="s">
         <v>101</v>
       </c>
@@ -5864,13 +5864,13 @@
       </c>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
-      <c r="C43" s="68" t="s">
+      <c r="C43" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="68"/>
-      <c r="E43" s="68"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="72"/>
       <c r="F43" s="32" t="s">
         <v>161</v>
       </c>
@@ -5881,13 +5881,13 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
-      <c r="C44" s="73" t="s">
+      <c r="C44" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
       <c r="F44" s="31" t="s">
         <v>81</v>
       </c>
@@ -5899,13 +5899,13 @@
       </c>
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="4"/>
-      <c r="C45" s="68" t="s">
+      <c r="C45" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="68"/>
-      <c r="E45" s="68"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="72"/>
       <c r="F45" s="53" t="s">
         <v>82</v>
       </c>
@@ -5917,13 +5917,13 @@
       </c>
       <c r="I45" s="5"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
-      <c r="C46" s="73" t="s">
+      <c r="C46" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="D46" s="73"/>
-      <c r="E46" s="73"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="71"/>
       <c r="F46" s="52" t="s">
         <v>83</v>
       </c>
@@ -5935,13 +5935,13 @@
       </c>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="4"/>
-      <c r="C47" s="68" t="s">
+      <c r="C47" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="68"/>
-      <c r="E47" s="68"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
       <c r="F47" s="53" t="s">
         <v>84</v>
       </c>
@@ -5953,13 +5953,13 @@
       </c>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
-      <c r="C48" s="73" t="s">
+      <c r="C48" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="73"/>
-      <c r="E48" s="73"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="71"/>
       <c r="F48" s="52" t="s">
         <v>85</v>
       </c>
@@ -5971,13 +5971,13 @@
       </c>
       <c r="I48" s="5"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B49" s="4"/>
-      <c r="C49" s="68" t="s">
+      <c r="C49" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="68"/>
-      <c r="E49" s="68"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="72"/>
       <c r="F49" s="53" t="s">
         <v>86</v>
       </c>
@@ -5989,13 +5989,13 @@
       </c>
       <c r="I49" s="5"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
-      <c r="C50" s="73" t="s">
+      <c r="C50" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="D50" s="73"/>
-      <c r="E50" s="73"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="71"/>
       <c r="F50" s="52" t="s">
         <v>87</v>
       </c>
@@ -6007,13 +6007,13 @@
       </c>
       <c r="I50" s="5"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B51" s="4"/>
-      <c r="C51" s="68" t="s">
+      <c r="C51" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="D51" s="68"/>
-      <c r="E51" s="68"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
       <c r="F51" s="53" t="s">
         <v>88</v>
       </c>
@@ -6025,13 +6025,13 @@
       </c>
       <c r="I51" s="5"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
-      <c r="C52" s="73" t="s">
+      <c r="C52" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="D52" s="73"/>
-      <c r="E52" s="73"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="71"/>
       <c r="F52" s="52" t="s">
         <v>89</v>
       </c>
@@ -6043,13 +6043,13 @@
       </c>
       <c r="I52" s="5"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B53" s="4"/>
-      <c r="C53" s="68" t="s">
+      <c r="C53" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="D53" s="68"/>
-      <c r="E53" s="68"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="72"/>
       <c r="F53" s="32" t="s">
         <v>102</v>
       </c>
@@ -6061,13 +6061,13 @@
       </c>
       <c r="I53" s="5"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
-      <c r="C54" s="73" t="s">
+      <c r="C54" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="D54" s="73"/>
-      <c r="E54" s="73"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="71"/>
       <c r="F54" s="31" t="s">
         <v>116</v>
       </c>
@@ -6079,13 +6079,13 @@
       </c>
       <c r="I54" s="5"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B55" s="4"/>
-      <c r="C55" s="55" t="s">
+      <c r="C55" s="124" t="s">
         <v>115</v>
       </c>
-      <c r="D55" s="56"/>
-      <c r="E55" s="57"/>
+      <c r="D55" s="125"/>
+      <c r="E55" s="126"/>
       <c r="F55" s="32" t="s">
         <v>117</v>
       </c>
@@ -6097,13 +6097,13 @@
       </c>
       <c r="I55" s="5"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
-      <c r="C56" s="73" t="s">
+      <c r="C56" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="D56" s="73"/>
-      <c r="E56" s="73"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="71"/>
       <c r="F56" s="31" t="s">
         <v>136</v>
       </c>
@@ -6115,13 +6115,13 @@
       </c>
       <c r="I56" s="5"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B57" s="4"/>
-      <c r="C57" s="55" t="s">
+      <c r="C57" s="124" t="s">
         <v>138</v>
       </c>
-      <c r="D57" s="56"/>
-      <c r="E57" s="57"/>
+      <c r="D57" s="125"/>
+      <c r="E57" s="126"/>
       <c r="F57" s="32" t="s">
         <v>137</v>
       </c>
@@ -6133,13 +6133,13 @@
       </c>
       <c r="I57" s="5"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
-      <c r="C58" s="73" t="s">
+      <c r="C58" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="D58" s="73"/>
-      <c r="E58" s="73"/>
+      <c r="D58" s="71"/>
+      <c r="E58" s="71"/>
       <c r="F58" s="10" t="s">
         <v>93</v>
       </c>
@@ -6151,13 +6151,13 @@
       </c>
       <c r="I58" s="5"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B59" s="4"/>
-      <c r="C59" s="68" t="s">
+      <c r="C59" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="D59" s="68"/>
-      <c r="E59" s="68"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="72"/>
       <c r="F59" s="32" t="s">
         <v>99</v>
       </c>
@@ -6169,13 +6169,13 @@
       </c>
       <c r="I59" s="5"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
-      <c r="C60" s="58" t="s">
+      <c r="C60" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="D60" s="59"/>
-      <c r="E60" s="60"/>
+      <c r="D60" s="83"/>
+      <c r="E60" s="84"/>
       <c r="F60" s="10" t="s">
         <v>91</v>
       </c>
@@ -6187,14 +6187,14 @@
       </c>
       <c r="I60" s="5"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="34"/>
-      <c r="C61" s="125" t="s">
+      <c r="C61" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="D61" s="126"/>
-      <c r="E61" s="127"/>
+      <c r="D61" s="86"/>
+      <c r="E61" s="87"/>
       <c r="F61" s="35" t="s">
         <v>112</v>
       </c>
@@ -6212,13 +6212,13 @@
       <c r="N61" s="8"/>
       <c r="O61" s="8"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B62" s="6"/>
-      <c r="C62" s="58" t="s">
+      <c r="C62" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="D62" s="59"/>
-      <c r="E62" s="60"/>
+      <c r="D62" s="83"/>
+      <c r="E62" s="84"/>
       <c r="F62" s="33" t="s">
         <v>151</v>
       </c>
@@ -6230,13 +6230,13 @@
       </c>
       <c r="I62" s="5"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B63" s="34"/>
-      <c r="C63" s="125" t="s">
+      <c r="C63" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="D63" s="126"/>
-      <c r="E63" s="127"/>
+      <c r="D63" s="86"/>
+      <c r="E63" s="87"/>
       <c r="F63" s="35" t="s">
         <v>149</v>
       </c>
@@ -6248,13 +6248,13 @@
       </c>
       <c r="I63" s="5"/>
     </row>
-    <row r="64" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="6"/>
-      <c r="C64" s="58" t="s">
+      <c r="C64" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="D64" s="59"/>
-      <c r="E64" s="60"/>
+      <c r="D64" s="83"/>
+      <c r="E64" s="84"/>
       <c r="F64" s="33" t="s">
         <v>49</v>
       </c>
@@ -6264,45 +6264,45 @@
       <c r="H64" s="46"/>
       <c r="I64" s="5"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B65" s="116" t="s">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="C65" s="117"/>
-      <c r="D65" s="117"/>
-      <c r="E65" s="117"/>
-      <c r="F65" s="117"/>
-      <c r="G65" s="117"/>
-      <c r="H65" s="118"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B66" s="119"/>
-      <c r="C66" s="120"/>
-      <c r="D66" s="120"/>
-      <c r="E66" s="120"/>
-      <c r="F66" s="120"/>
-      <c r="G66" s="120"/>
-      <c r="H66" s="121"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B67" s="119"/>
-      <c r="C67" s="120"/>
-      <c r="D67" s="120"/>
-      <c r="E67" s="120"/>
-      <c r="F67" s="120"/>
-      <c r="G67" s="120"/>
-      <c r="H67" s="121"/>
-    </row>
-    <row r="68" spans="2:11" ht="238.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B68" s="122"/>
-      <c r="C68" s="123"/>
-      <c r="D68" s="123"/>
-      <c r="E68" s="123"/>
-      <c r="F68" s="123"/>
-      <c r="G68" s="123"/>
-      <c r="H68" s="124"/>
-    </row>
-    <row r="69" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C65" s="74"/>
+      <c r="D65" s="74"/>
+      <c r="E65" s="74"/>
+      <c r="F65" s="74"/>
+      <c r="G65" s="74"/>
+      <c r="H65" s="75"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" s="76"/>
+      <c r="C66" s="77"/>
+      <c r="D66" s="77"/>
+      <c r="E66" s="77"/>
+      <c r="F66" s="77"/>
+      <c r="G66" s="77"/>
+      <c r="H66" s="78"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="76"/>
+      <c r="C67" s="77"/>
+      <c r="D67" s="77"/>
+      <c r="E67" s="77"/>
+      <c r="F67" s="77"/>
+      <c r="G67" s="77"/>
+      <c r="H67" s="78"/>
+    </row>
+    <row r="68" spans="2:11" ht="238.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="79"/>
+      <c r="C68" s="80"/>
+      <c r="D68" s="80"/>
+      <c r="E68" s="80"/>
+      <c r="F68" s="80"/>
+      <c r="G68" s="80"/>
+      <c r="H68" s="81"/>
+    </row>
+    <row r="69" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
@@ -6312,195 +6312,242 @@
       <c r="H69" s="11"/>
       <c r="K69" s="27"/>
     </row>
-    <row r="70" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
-      <c r="G70" s="114"/>
-      <c r="H70" s="114"/>
+      <c r="G70" s="69"/>
+      <c r="H70" s="69"/>
       <c r="K70" s="27"/>
     </row>
-    <row r="71" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
-      <c r="G71" s="114"/>
-      <c r="H71" s="114"/>
+      <c r="G71" s="69"/>
+      <c r="H71" s="69"/>
       <c r="K71" s="27"/>
     </row>
-    <row r="72" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
-      <c r="G72" s="114"/>
-      <c r="H72" s="114"/>
+      <c r="G72" s="69"/>
+      <c r="H72" s="69"/>
       <c r="K72" s="27"/>
     </row>
-    <row r="73" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="114"/>
-      <c r="C73" s="114"/>
-      <c r="D73" s="114"/>
-      <c r="E73" s="114"/>
+    <row r="73" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="69"/>
+      <c r="C73" s="69"/>
+      <c r="D73" s="69"/>
+      <c r="E73" s="69"/>
       <c r="F73" s="11"/>
       <c r="G73" s="11"/>
       <c r="H73" s="11"/>
       <c r="K73" s="27"/>
     </row>
-    <row r="74" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K74" s="27"/>
     </row>
-    <row r="75" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K75" s="27"/>
     </row>
-    <row r="76" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K76" s="27"/>
     </row>
-    <row r="77" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K77" s="27"/>
     </row>
-    <row r="78" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K78" s="27"/>
     </row>
-    <row r="79" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K79" s="27"/>
     </row>
-    <row r="80" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K80" s="27"/>
     </row>
-    <row r="81" spans="11:11" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="11:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K81" s="27"/>
     </row>
-    <row r="82" spans="11:11" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="11:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K82" s="27"/>
     </row>
-    <row r="83" spans="11:11" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="11:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K83" s="27"/>
     </row>
-    <row r="84" spans="11:11" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="11:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K84" s="27"/>
     </row>
-    <row r="85" spans="11:11" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="11:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K85" s="27"/>
     </row>
-    <row r="86" spans="11:11" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="11:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K86" s="27"/>
     </row>
-    <row r="87" spans="11:11" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="11:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K87" s="27"/>
     </row>
-    <row r="88" spans="11:11" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="11:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K88" s="27"/>
     </row>
-    <row r="89" spans="11:11" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="11:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K89" s="27"/>
     </row>
-    <row r="90" spans="11:11" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="11:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K90" s="27"/>
     </row>
-    <row r="91" spans="11:11" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="11:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K91" s="27"/>
     </row>
-    <row r="92" spans="11:11" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="11:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K92" s="27"/>
     </row>
-    <row r="93" spans="11:11" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="11:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K93" s="27"/>
     </row>
-    <row r="94" spans="11:11" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="11:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K94" s="27"/>
     </row>
-    <row r="95" spans="11:11" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="11:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K95" s="27"/>
     </row>
-    <row r="96" spans="11:11" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="11:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K96" s="27"/>
     </row>
-    <row r="97" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K97" s="27"/>
     </row>
-    <row r="98" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K98" s="27"/>
     </row>
-    <row r="99" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K99" s="27"/>
     </row>
-    <row r="100" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B100" s="11"/>
-      <c r="C100" s="94"/>
-      <c r="D100" s="94"/>
-      <c r="E100" s="94"/>
+      <c r="C100" s="68"/>
+      <c r="D100" s="68"/>
+      <c r="E100" s="68"/>
       <c r="F100" s="11"/>
       <c r="G100" s="11"/>
       <c r="H100" s="11"/>
       <c r="K100" s="27"/>
     </row>
-    <row r="101" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K101" s="27"/>
     </row>
-    <row r="102" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K102" s="27"/>
     </row>
-    <row r="103" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K103" s="27"/>
     </row>
-    <row r="104" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K104" s="27"/>
     </row>
-    <row r="105" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K105" s="27"/>
     </row>
-    <row r="106" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K106" s="27"/>
     </row>
-    <row r="107" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K107" s="27"/>
     </row>
-    <row r="108" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K108" s="27"/>
     </row>
-    <row r="109" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K109" s="27"/>
     </row>
-    <row r="110" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K110" s="27"/>
     </row>
-    <row r="111" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K111" s="27"/>
     </row>
-    <row r="112" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K112" s="27"/>
     </row>
-    <row r="113" spans="11:11" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="11:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K113" s="27"/>
     </row>
-    <row r="114" spans="11:11" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="11:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K114" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="B8:B19"/>
+    <mergeCell ref="G2:H5"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G17:H17"/>
     <mergeCell ref="C100:E100"/>
     <mergeCell ref="B73:E73"/>
     <mergeCell ref="C41:E41"/>
@@ -6517,70 +6564,23 @@
     <mergeCell ref="G70:H72"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="C56:E56"/>
-    <mergeCell ref="B8:B19"/>
-    <mergeCell ref="G2:H5"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
@@ -7667,129 +7667,129 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="153" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="26" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="28"/>
     </row>
-    <row r="14" spans="2:2" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B14" s="29"/>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="30"/>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="30"/>
     </row>
-    <row r="19" spans="2:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="28" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B20" s="29" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="30" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="30" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="30" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="28" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B27" s="29" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="30" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="30" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="30" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="54" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="28" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B34" s="29" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="30" t="s">
         <v>152</v>
       </c>
@@ -7797,7 +7797,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="30" t="s">
         <v>157</v>
       </c>
@@ -7805,7 +7805,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="30" t="s">
         <v>156</v>
       </c>
